--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1068912.793843518</v>
+        <v>1118805.570494516</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111175</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>90.38893773807641</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>113.1480979668291</v>
       </c>
       <c r="T3" t="n">
-        <v>53.55223133173841</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>83.23877906295971</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>95.84594045502331</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>49.72357931159469</v>
       </c>
       <c r="D11" t="n">
-        <v>297.6300785677062</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>74.11995168493362</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>85.28262520611692</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>115.0357396538524</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.58838388982765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>168.1815730642567</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>275.7840476254253</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>15.52385786288585</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.05798817057651</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.0757008569635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>247.6070206310687</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>87.68257535900955</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>6.44879400069067</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.0783550618347</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>405.7415719969023</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>48.89452557051471</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>99.66341849957261</v>
       </c>
     </row>
     <row r="21">
@@ -2162,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>61.81692990010834</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>8.644241788329229</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>85.67417889435359</v>
+        <v>112.8556863456975</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>277.4685032738789</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>43.57461218901252</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>2.57772691677565</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>99.78974769572869</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.9764047481748</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>108.426561366427</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>270.9591422038903</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -2690,19 +2690,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>141.2209508291585</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>177.4933113465264</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30.4499674199843</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>39.19479062707035</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>380.3849069482931</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>405.7415719969023</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>27.63984123830711</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>25.76166673224417</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>154.4285714782582</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>38.97640474817486</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>39.19479062707035</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6396260835077</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>28.78393973781009</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.29496333259885</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3170,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>202.8167120331282</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>158.252581986138</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>404.1961088729337</v>
       </c>
       <c r="G35" t="n">
         <v>405.7415719969023</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.51306725225074</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>43.83439827570042</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.36175976093786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>203.5716092454189</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.74898662285606</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.425224531301852</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>91.47789120501473</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.19479062707036</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.87832652294174</v>
       </c>
       <c r="F41" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>203.371634194361</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>34.78798801878939</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>181.7638782208678</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>257.9648699330302</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>287.836325534663</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>60.47757240114815</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>154.353268296075</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>32.57639700375389</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>157.7727335375555</v>
       </c>
     </row>
   </sheetData>
@@ -4318,13 +4318,13 @@
         <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>122.6530896684844</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>446.5882660539306</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>272.1352367728036</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>272.1352367728036</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>272.1352367728036</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>748.5966180162197</v>
       </c>
       <c r="T3" t="n">
-        <v>909.9639925492843</v>
+        <v>546.4100233749857</v>
       </c>
       <c r="U3" t="n">
-        <v>681.7403742856734</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="V3" t="n">
-        <v>446.5882660539306</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="W3" t="n">
-        <v>446.5882660539306</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X3" t="n">
-        <v>446.5882660539306</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>446.5882660539306</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>710.516763498309</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877.4710495913895</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C6" t="n">
-        <v>703.0180203102625</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D6" t="n">
-        <v>554.0836106490112</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E6" t="n">
-        <v>394.8461556435558</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>248.3115976704407</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,7 +4655,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>370.2385984713777</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X9" t="n">
-        <v>632.0909660111932</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y9" t="n">
-        <v>424.3306672462393</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>702.0582856978469</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="C11" t="n">
-        <v>333.0957687574352</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G11" t="n">
         <v>32.45932575975218</v>
@@ -5041,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5068,25 +5068,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U11" t="n">
-        <v>1088.658125761969</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V11" t="n">
-        <v>1088.658125761969</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="W11" t="n">
-        <v>1088.658125761969</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="X11" t="n">
-        <v>1088.658125761969</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="Y11" t="n">
-        <v>1088.658125761969</v>
+        <v>902.3651068763172</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>736.4874157462905</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="C12" t="n">
-        <v>562.0343864651635</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="D12" t="n">
-        <v>413.0999768039122</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E12" t="n">
-        <v>253.8625217984567</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F12" t="n">
-        <v>107.3279638253417</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N12" t="n">
         <v>948.4732699082806</v>
@@ -5147,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1340.665718993834</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U12" t="n">
-        <v>1112.463051531312</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V12" t="n">
-        <v>1112.463051531312</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="W12" t="n">
-        <v>1112.463051531312</v>
+        <v>1052.770318749999</v>
       </c>
       <c r="X12" t="n">
-        <v>1112.463051531312</v>
+        <v>1052.770318749999</v>
       </c>
       <c r="Y12" t="n">
-        <v>904.7027527663586</v>
+        <v>845.0100199850456</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.4512025860964</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C13" t="n">
-        <v>181.4512025860964</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D13" t="n">
-        <v>181.4512025860964</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E13" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
         <v>32.45932575975218</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="S13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="T13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="U13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="V13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="W13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="X13" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.4512025860964</v>
+        <v>180.3724193421453</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.8690425499822</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C14" t="n">
-        <v>720.8690425499822</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D14" t="n">
-        <v>720.8690425499822</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E14" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F14" t="n">
         <v>32.45932575975218</v>
@@ -5278,16 +5278,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U14" t="n">
-        <v>1425.397688154633</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V14" t="n">
-        <v>1094.334800811062</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W14" t="n">
-        <v>1094.334800811062</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="X14" t="n">
-        <v>720.8690425499822</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.8690425499822</v>
+        <v>571.3022195327464</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.9932758437803</v>
+        <v>640.7936959160752</v>
       </c>
       <c r="C15" t="n">
-        <v>160.9932758437803</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="D15" t="n">
-        <v>160.9932758437803</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E15" t="n">
-        <v>160.9932758437803</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F15" t="n">
-        <v>160.9932758437803</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>160.9932758437803</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>50.69971785124361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
@@ -5360,49 +5360,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V15" t="n">
-        <v>791.2062683570039</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W15" t="n">
-        <v>536.9689116288023</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="X15" t="n">
-        <v>536.9689116288023</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="Y15" t="n">
-        <v>329.2086128638484</v>
+        <v>656.4743604240407</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C16" t="n">
         <v>32.45932575975218</v>
@@ -5466,22 +5466,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1000.917844222863</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C17" t="n">
+        <v>1041.795298996494</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1041.795298996494</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1041.795298996494</v>
+      </c>
+      <c r="F17" t="n">
         <v>631.9553272824514</v>
-      </c>
-      <c r="D17" t="n">
-        <v>631.9553272824514</v>
-      </c>
-      <c r="E17" t="n">
-        <v>631.9553272824514</v>
-      </c>
-      <c r="F17" t="n">
-        <v>222.1153555684087</v>
       </c>
       <c r="G17" t="n">
         <v>222.1153555684087</v>
@@ -5515,16 +5515,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5548,19 +5548,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1372.858186340065</v>
       </c>
       <c r="V17" t="n">
-        <v>1291.903400644038</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.903400644038</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="X17" t="n">
-        <v>1291.903400644038</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="Y17" t="n">
-        <v>1291.903400644038</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>751.087253908612</v>
+        <v>416.496551332512</v>
       </c>
       <c r="C18" t="n">
-        <v>576.634224627485</v>
+        <v>416.496551332512</v>
       </c>
       <c r="D18" t="n">
-        <v>427.6998149662337</v>
+        <v>267.5621416712607</v>
       </c>
       <c r="E18" t="n">
-        <v>427.6998149662337</v>
+        <v>267.5621416712607</v>
       </c>
       <c r="F18" t="n">
-        <v>281.1652569931186</v>
+        <v>121.0275836981457</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975218</v>
@@ -5621,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1616.452354653578</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V18" t="n">
-        <v>1381.300246421835</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W18" t="n">
-        <v>1127.062889693634</v>
+        <v>1000.323687323067</v>
       </c>
       <c r="X18" t="n">
-        <v>1127.062889693634</v>
+        <v>792.4721871175338</v>
       </c>
       <c r="Y18" t="n">
-        <v>919.30259092868</v>
+        <v>584.71188835258</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
         <v>32.45932575975218</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>179.3492732576625</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>179.3492732576625</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X19" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1376.009278487446</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C20" t="n">
-        <v>1376.009278487446</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D20" t="n">
-        <v>1017.743579880696</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E20" t="n">
-        <v>631.9553272824514</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5779,25 +5779,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1376.009278487446</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1376.009278487446</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1376.009278487446</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1376.009278487446</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1376.009278487446</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1376.009278487446</v>
+        <v>1169.527513020957</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.1498100463347</v>
+        <v>319.8061086618332</v>
       </c>
       <c r="C21" t="n">
-        <v>191.6967807652077</v>
+        <v>319.8061086618332</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975218</v>
@@ -5834,19 +5834,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456783</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.293373622612</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O21" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5858,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1422.063279093102</v>
+        <v>1393.022709612332</v>
       </c>
       <c r="U21" t="n">
-        <v>1193.860611630581</v>
+        <v>1393.022709612332</v>
       </c>
       <c r="V21" t="n">
-        <v>958.708503398838</v>
+        <v>1157.87060138059</v>
       </c>
       <c r="W21" t="n">
-        <v>949.9769460368893</v>
+        <v>903.6332446523879</v>
       </c>
       <c r="X21" t="n">
-        <v>742.1254458313565</v>
+        <v>695.7817444468551</v>
       </c>
       <c r="Y21" t="n">
-        <v>534.3651470664026</v>
+        <v>488.0214456819012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>179.5981367727103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
         <v>32.45932575975218</v>
@@ -5919,43 +5919,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>759.6875413069145</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7250243665027</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E23" t="n">
         <v>32.45932575975218</v>
@@ -5989,16 +5989,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1536.426713346848</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1536.426713346848</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1536.426713346848</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U23" t="n">
-        <v>1536.426713346848</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V23" t="n">
-        <v>1536.426713346848</v>
+        <v>808.3869103338081</v>
       </c>
       <c r="W23" t="n">
-        <v>1536.426713346848</v>
+        <v>808.3869103338081</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.426713346848</v>
+        <v>808.3869103338081</v>
       </c>
       <c r="Y23" t="n">
-        <v>1146.287381371036</v>
+        <v>418.2475783579964</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>556.699127806331</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C24" t="n">
-        <v>382.246098525204</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D24" t="n">
-        <v>382.246098525204</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E24" t="n">
-        <v>223.0086435197485</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>76.47408554663352</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975218</v>
@@ -6068,25 +6068,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>256.6067387278473</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1394.763620525087</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>1394.763620525087</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>1140.526263796886</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X24" t="n">
-        <v>932.674763591353</v>
+        <v>534.3651470664026</v>
       </c>
       <c r="Y24" t="n">
-        <v>724.9144648263991</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="25">
@@ -6150,7 +6150,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191283</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6159,7 +6159,7 @@
         <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>270.9687512285708</v>
       </c>
       <c r="O25" t="n">
         <v>332.2934283710736</v>
@@ -6177,16 +6177,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="T25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>260.4488766577695</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>260.4488766577695</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
         <v>32.45932575975218</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E26" t="n">
         <v>32.45932575975218</v>
@@ -6226,10 +6226,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1286.226725594945</v>
+        <v>1513.444508829602</v>
       </c>
       <c r="U26" t="n">
-        <v>1032.389842527199</v>
+        <v>1513.444508829602</v>
       </c>
       <c r="V26" t="n">
-        <v>758.6937392909463</v>
+        <v>1513.444508829602</v>
       </c>
       <c r="W26" t="n">
-        <v>405.9250840208321</v>
+        <v>1160.675853559488</v>
       </c>
       <c r="X26" t="n">
-        <v>32.45932575975218</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975218</v>
+        <v>787.2100952984081</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>206.9123550408792</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45932575975218</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975218</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6308,16 +6308,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456783</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6329,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1111.91361897131</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>876.7615107395675</v>
+        <v>765.6746434121787</v>
       </c>
       <c r="W27" t="n">
-        <v>622.5241540113659</v>
+        <v>765.6746434121787</v>
       </c>
       <c r="X27" t="n">
-        <v>414.6726538058331</v>
+        <v>765.6746434121787</v>
       </c>
       <c r="Y27" t="n">
-        <v>206.9123550408792</v>
+        <v>765.6746434121787</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>211.1299621906143</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>63.21686860822118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>63.21686860822118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
         <v>32.45932575975218</v>
@@ -6417,19 +6417,19 @@
         <v>361.24660160295</v>
       </c>
       <c r="U28" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="V28" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="W28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1236.366447923487</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C29" t="n">
-        <v>1236.366447923487</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D29" t="n">
-        <v>1236.366447923487</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E29" t="n">
         <v>852.1392691878377</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1595.047256433764</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1595.047256433764</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1595.047256433764</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1595.047256433764</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1595.047256433764</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.6311904264589</v>
+        <v>489.7623565946564</v>
       </c>
       <c r="C30" t="n">
-        <v>340.6311904264589</v>
+        <v>315.3093273135294</v>
       </c>
       <c r="D30" t="n">
-        <v>191.6967807652077</v>
+        <v>315.3093273135294</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>315.3093273135294</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>168.7747693404143</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975218</v>
@@ -6548,19 +6548,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1466.977831948964</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1266.074823054458</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1037.872155591936</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V30" t="n">
-        <v>802.7200473601933</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W30" t="n">
-        <v>548.4826906319918</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X30" t="n">
-        <v>340.6311904264589</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y30" t="n">
-        <v>340.6311904264589</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>361.24660160295</v>
       </c>
       <c r="U31" t="n">
-        <v>321.8764957967128</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="V31" t="n">
-        <v>321.8764957967128</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="W31" t="n">
         <v>32.45932575975218</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>61.53401236360077</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>61.53401236360077</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>61.53401236360077</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>61.53401236360077</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>61.53401236360077</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6700,10 +6700,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
         <v>519.4894913528324</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V32" t="n">
-        <v>1291.903400644038</v>
+        <v>1177.907757870606</v>
       </c>
       <c r="W32" t="n">
-        <v>939.1347453739243</v>
+        <v>825.1391026004924</v>
       </c>
       <c r="X32" t="n">
-        <v>565.6689871128444</v>
+        <v>451.6733443394125</v>
       </c>
       <c r="Y32" t="n">
-        <v>175.5296551370327</v>
+        <v>61.53401236360077</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>494.2591379429603</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="C33" t="n">
-        <v>319.8061086618332</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D33" t="n">
-        <v>170.8716990005819</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E33" t="n">
-        <v>170.8716990005819</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6779,25 +6779,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U33" t="n">
-        <v>1026.358376588747</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V33" t="n">
-        <v>791.2062683570039</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W33" t="n">
-        <v>791.2062683570039</v>
+        <v>753.8431377088095</v>
       </c>
       <c r="X33" t="n">
-        <v>791.2062683570039</v>
+        <v>545.9916375032767</v>
       </c>
       <c r="Y33" t="n">
-        <v>583.44596959205</v>
+        <v>338.2313387383227</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
         <v>32.45932575975218</v>
@@ -6885,25 +6885,25 @@
         <v>361.24660160295</v>
       </c>
       <c r="S34" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T34" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U34" t="n">
-        <v>201.3955086876591</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V34" t="n">
-        <v>201.3955086876591</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W34" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1186.35324867879</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="C35" t="n">
-        <v>1186.35324867879</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="D35" t="n">
-        <v>828.0875500720392</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="E35" t="n">
-        <v>442.2992974737949</v>
+        <v>850.5781953252431</v>
       </c>
       <c r="F35" t="n">
         <v>442.2992974737949</v>
@@ -6937,16 +6937,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y35" t="n">
-        <v>1572.953088742911</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.7623565946564</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>315.3093273135294</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>315.3093273135294</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0718723080739</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>156.0718723080739</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7046,22 +7046,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.763620525087</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V36" t="n">
-        <v>1159.611512293345</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W36" t="n">
-        <v>905.3741555651432</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X36" t="n">
-        <v>697.5226553596103</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y36" t="n">
-        <v>489.7623565946564</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>140.4540224594199</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>140.4540224594199</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>140.4540224594199</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>140.4540224594199</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>140.4540224594199</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975218</v>
@@ -7131,16 +7131,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="V37" t="n">
-        <v>106.5621133970631</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W37" t="n">
-        <v>106.5621133970631</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X37" t="n">
-        <v>106.5621133970631</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>140.4540224594199</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>647.9271856004807</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C38" t="n">
-        <v>647.9271856004807</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975218</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1458.719143574929</v>
       </c>
       <c r="U38" t="n">
-        <v>1369.129404919863</v>
+        <v>1458.719143574929</v>
       </c>
       <c r="V38" t="n">
-        <v>1038.066517576292</v>
+        <v>1127.656256231358</v>
       </c>
       <c r="W38" t="n">
-        <v>1038.066517576292</v>
+        <v>774.8876009612438</v>
       </c>
       <c r="X38" t="n">
-        <v>1038.066517576292</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="Y38" t="n">
-        <v>647.9271856004807</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.45932575975218</v>
+        <v>424.6601048545757</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313474</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1549.294407243711</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894781</v>
+        <v>1329.661368785007</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577354</v>
+        <v>1094.509260553264</v>
       </c>
       <c r="W39" t="n">
-        <v>455.5713515295337</v>
+        <v>840.2719038250625</v>
       </c>
       <c r="X39" t="n">
-        <v>247.7198513240009</v>
+        <v>632.4204036195297</v>
       </c>
       <c r="Y39" t="n">
-        <v>39.95955255904698</v>
+        <v>424.6601048545757</v>
       </c>
     </row>
     <row r="40">
@@ -7341,34 +7341,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>321.6559039998486</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W40" t="n">
         <v>32.45932575975218</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1057.565162313455</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="C41" t="n">
-        <v>1057.565162313455</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="D41" t="n">
-        <v>1057.565162313455</v>
+        <v>658.0950510429986</v>
       </c>
       <c r="E41" t="n">
-        <v>1057.565162313455</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F41" t="n">
-        <v>647.7251905994121</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G41" t="n">
-        <v>237.8852188853694</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1057.565162313455</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V41" t="n">
-        <v>1057.565162313455</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W41" t="n">
-        <v>1057.565162313455</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X41" t="n">
-        <v>1057.565162313455</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="Y41" t="n">
-        <v>1057.565162313455</v>
+        <v>1016.360749649749</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>529.3985197801212</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C42" t="n">
-        <v>354.9454904989942</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D42" t="n">
-        <v>206.011080837743</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E42" t="n">
-        <v>206.011080837743</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>206.011080837743</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>67.59870759691319</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7490,25 +7490,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>256.6067387278473</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7523,19 +7523,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.763620525087</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.611512293345</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W42" t="n">
-        <v>905.3741555651432</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X42" t="n">
-        <v>905.3741555651432</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.6138568001893</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
         <v>32.45932575975218</v>
@@ -7596,25 +7596,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7675,22 +7675,22 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U44" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V44" t="n">
-        <v>1508.970645214177</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="W44" t="n">
-        <v>1508.970645214177</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X44" t="n">
-        <v>1218.226882047851</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y44" t="n">
         <v>828.0875500720392</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>468.3521269378419</v>
+        <v>702.3133025848532</v>
       </c>
       <c r="C45" t="n">
-        <v>407.2636699669852</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="D45" t="n">
-        <v>258.3292603057339</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E45" t="n">
-        <v>258.3292603057339</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F45" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7727,16 +7727,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497702</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N45" t="n">
         <v>1057.709031609043</v>
@@ -7757,22 +7757,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V45" t="n">
-        <v>1306.416619656598</v>
+        <v>956.5506593130549</v>
       </c>
       <c r="W45" t="n">
-        <v>1052.179262928397</v>
+        <v>702.3133025848532</v>
       </c>
       <c r="X45" t="n">
-        <v>844.3277627228638</v>
+        <v>702.3133025848532</v>
       </c>
       <c r="Y45" t="n">
-        <v>636.5674639579099</v>
+        <v>702.3133025848532</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D46" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E46" t="n">
-        <v>328.3411500840068</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F46" t="n">
-        <v>181.4512025860964</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7851,7 +7851,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>63.84875129258623</v>
+        <v>92.88803957954771</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>228.2563757694028</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>63.84875129258623</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344739</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,10 +9494,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P21" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275543</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210654</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10196,13 +10196,13 @@
         <v>86.93262649026377</v>
       </c>
       <c r="L30" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>74.46639351210652</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>174.1541756582083</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928323</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>351.7205150479949</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>315.5493124594129</v>
       </c>
       <c r="D11" t="n">
-        <v>57.05296305297674</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>62.90829782348783</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>166.4123579548027</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.3733214830051</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>205.9962694622672</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5522685992239</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>106.1463224468365</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>151.0093257869815</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>60.48403463656153</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23706,7 +23706,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>187.8398609411363</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.65814080651711</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,7 +23746,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23788,7 +23788,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>3.691493605999739</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>49.34567414941191</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23861,22 +23861,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>219.4718467872059</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23946,16 +23946,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>106.2262573958608</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>1.134473744809156</v>
@@ -23989,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>171.6219548525251</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>286.574520156481</v>
       </c>
     </row>
     <row r="21">
@@ -24050,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.0770489054533</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>243.0507413725904</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>1.834535155252212</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
         <v>74.67247646141476</v>
@@ -24186,10 +24186,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.18150745134386</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>50.28375519625598</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>93.45363731940893</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24335,25 +24335,25 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>203.1952582867018</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24417,19 +24417,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>127.0265179935826</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>112.0899190566128</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>56.79311626624462</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>84.69968995873808</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>55.30727580289889</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>137.2767021272261</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>1.545463123968659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>1.134473744809156</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>85.21584510739034</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>111.2665827761773</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24809,10 +24809,10 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>11.3986412131575</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>247.3282077095207</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0942155799729</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>385.9295643927238</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.23822031726849</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25046,7 +25046,7 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25058,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>48.87827112779138</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,19 +25125,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236785</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>128.0520304715575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>2.679936868777759</v>
       </c>
       <c r="G35" t="n">
         <v>8.97193213363164</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.34261909344671</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,19 +25241,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>93.19385123272104</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>60.81191981453935</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25371,7 +25371,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.2228935911569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>151.1114323752641</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>170.7674938001838</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>159.1079591185655</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>134.4427495828818</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>187.6214750622409</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>356.05204354932</v>
       </c>
       <c r="F41" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>130.0686815213596</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>74.40263439382197</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25763,7 +25763,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>44.15676256702881</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>2.104484466239711</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25836,10 +25836,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>69.78738853710473</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>81.89477514380604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>112.2309265871676</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>78.44731885335031</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>113.8575656428153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>60.81191981453929</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>540473.6362445692</v>
+        <v>540473.6362445693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>540473.6362445687</v>
+        <v>540473.6362445689</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>540473.6362445691</v>
+        <v>540473.6362445689</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540473.6362445693</v>
+        <v>540473.6362445687</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540473.6362445693</v>
+        <v>540473.6362445691</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540473.6362445687</v>
+        <v>540473.636244569</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>540473.6362445691</v>
+        <v>540473.6362445687</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540473.636244569</v>
+        <v>540473.6362445691</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540473.636244569</v>
+        <v>540473.6362445687</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540473.6362445692</v>
+        <v>540473.6362445691</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>540473.6362445693</v>
+        <v>540473.6362445692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
         <v>267036.121330758</v>
@@ -26334,7 +26334,7 @@
         <v>267036.1213307581</v>
       </c>
       <c r="I2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="J2" t="n">
         <v>267036.121330758</v>
@@ -26343,16 +26343,16 @@
         <v>267036.121330758</v>
       </c>
       <c r="L2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="M2" t="n">
+        <v>267036.1213307581</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267036.1213307581</v>
+      </c>
+      <c r="O2" t="n">
         <v>267036.1213307578</v>
-      </c>
-      <c r="M2" t="n">
-        <v>267036.1213307577</v>
-      </c>
-      <c r="N2" t="n">
-        <v>267036.121330758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>267036.121330758</v>
       </c>
       <c r="P2" t="n">
         <v>267036.121330758</v>
@@ -26426,16 +26426,16 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="F4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="G4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="H4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="I4" t="n">
         <v>60114.57655225279</v>
@@ -26444,22 +26444,22 @@
         <v>60114.57655225279</v>
       </c>
       <c r="K4" t="n">
+        <v>60114.57655225279</v>
+      </c>
+      <c r="L4" t="n">
         <v>60114.57655225278</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60114.57655225279</v>
       </c>
       <c r="M4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="N4" t="n">
+        <v>60114.57655225279</v>
+      </c>
+      <c r="O4" t="n">
         <v>60114.57655225278</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>60114.57655225279</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60114.57655225278</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46402.29573623505</v>
+        <v>46402.29573623528</v>
       </c>
       <c r="C6" t="n">
-        <v>127171.727267783</v>
+        <v>127171.7272677828</v>
       </c>
       <c r="D6" t="n">
-        <v>127171.7272677829</v>
+        <v>127171.7272677828</v>
       </c>
       <c r="E6" t="n">
-        <v>2272.422346124185</v>
+        <v>11132.56180016329</v>
       </c>
       <c r="F6" t="n">
-        <v>169212.5924713709</v>
+        <v>178072.73192541</v>
       </c>
       <c r="G6" t="n">
-        <v>169212.5924713709</v>
+        <v>178072.73192541</v>
       </c>
       <c r="H6" t="n">
-        <v>169212.5924713711</v>
+        <v>178072.7319254101</v>
       </c>
       <c r="I6" t="n">
-        <v>169212.592471371</v>
+        <v>178072.73192541</v>
       </c>
       <c r="J6" t="n">
-        <v>106152.6498722647</v>
+        <v>115012.7893263038</v>
       </c>
       <c r="K6" t="n">
-        <v>169212.5924713709</v>
+        <v>178072.73192541</v>
       </c>
       <c r="L6" t="n">
-        <v>169212.5924713707</v>
+        <v>178072.73192541</v>
       </c>
       <c r="M6" t="n">
-        <v>128161.8946089227</v>
+        <v>137022.0340629623</v>
       </c>
       <c r="N6" t="n">
-        <v>169212.5924713709</v>
+        <v>178072.7319254101</v>
       </c>
       <c r="O6" t="n">
-        <v>169212.5924713709</v>
+        <v>178072.7319254098</v>
       </c>
       <c r="P6" t="n">
-        <v>169212.5924713709</v>
+        <v>178072.73192541</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>324.9137997770587</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>58.53507313700868</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6124973630832</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>108.7876855495171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>316.4369965874658</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.81293878981307</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27754,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>122.4439167143447</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>62.54139172876556</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>109.9270447484542</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28031,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>130.6950424194675</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438473</v>
@@ -32487,25 +32487,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427703</v>
@@ -32554,22 +32554,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
         <v>40.24363958326609</v>
@@ -32578,7 +32578,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,34 +32621,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
         <v>22.13234246735009</v>
@@ -32657,7 +32657,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011532</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046561</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629217</v>
       </c>
       <c r="K23" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645899</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044656</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32724,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971763</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737664</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134782</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545222</v>
       </c>
       <c r="S23" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091549</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809224</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891927</v>
       </c>
       <c r="H24" t="n">
         <v>3.044821823885099</v>
@@ -32788,40 +32788,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.7858796132193</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409521</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253942</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864763</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975587</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100586</v>
       </c>
       <c r="P24" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601699</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326608</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422063</v>
       </c>
       <c r="T24" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259947</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823637</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,16 +32870,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412593</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323127</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141107</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039454</v>
       </c>
       <c r="O25" t="n">
         <v>37.35899041172068</v>
@@ -32888,16 +32888,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735008</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118888</v>
       </c>
       <c r="T25" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970202</v>
       </c>
       <c r="U25" t="n">
         <v>0.01441689879536431</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K38" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33909,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
@@ -33976,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P39" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34000,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34079,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,7 +34789,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>14.50290175900885</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726432</v>
@@ -36132,7 +36132,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36214,10 +36214,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P21" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
         <v>61.94411832576036</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167965</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36375,10 +36375,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P23" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680302</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
@@ -36457,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243077</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325165</v>
       </c>
       <c r="N25" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576035</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714789</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,10 +36685,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,16 +37159,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37554,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223148</v>
@@ -37630,19 +37630,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37788,7 +37788,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094069</v>
       </c>
       <c r="N41" t="n">
         <v>313.0722467132387</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37879,7 +37879,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,7 +38107,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>302.3746655144175</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
